--- a/Vetki_edit.xlsx
+++ b/Vetki_edit.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="22020" windowHeight="8496"/>
+    <workbookView xWindow="288" yWindow="96" windowWidth="22020" windowHeight="8496" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Vetka1" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Мастер ветка</t>
   </si>
   <si>
     <t>Коммит 1</t>
+  </si>
+  <si>
+    <t>Ветка1</t>
+  </si>
+  <si>
+    <t>Правка</t>
   </si>
 </sst>
 </file>
@@ -363,6 +369,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C4"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C4"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
@@ -371,7 +405,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -379,22 +413,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Vetki_edit.xlsx
+++ b/Vetki_edit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="22020" windowHeight="8496" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="96" windowWidth="22020" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Мастер ветка</t>
   </si>
@@ -28,6 +28,9 @@
   </si>
   <si>
     <t>Правка</t>
+  </si>
+  <si>
+    <t>c2</t>
   </si>
 </sst>
 </file>
@@ -367,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,6 +391,14 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -397,7 +408,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>

--- a/Vetki_edit.xlsx
+++ b/Vetki_edit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Мастер ветка</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>c2</t>
+  </si>
+  <si>
+    <t>c3</t>
   </si>
 </sst>
 </file>
@@ -370,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,6 +400,14 @@
       </c>
       <c r="C5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Vetki_edit.xlsx
+++ b/Vetki_edit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Мастер ветка</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>c3</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
 </sst>
 </file>
@@ -373,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -408,6 +411,14 @@
       </c>
       <c r="C6" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Vetki_edit.xlsx
+++ b/Vetki_edit.xlsx
@@ -16,18 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Мастер ветка</t>
   </si>
   <si>
     <t>Коммит 1</t>
-  </si>
-  <si>
-    <t>Ветка1</t>
-  </si>
-  <si>
-    <t>Правка</t>
   </si>
   <si>
     <t>c2</t>
@@ -402,7 +396,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -410,7 +404,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -418,7 +412,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -428,28 +422,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Vetki_edit.xlsx
+++ b/Vetki_edit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="22020" windowHeight="8496"/>
+    <workbookView xWindow="288" yWindow="96" windowWidth="22020" windowHeight="8496" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Мастер ветка</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>c4</t>
+  </si>
+  <si>
+    <t>c1</t>
   </si>
 </sst>
 </file>
@@ -372,7 +375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -422,14 +425,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Vetki_edit.xlsx
+++ b/Vetki_edit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="22020" windowHeight="8496" activeTab="1"/>
+    <workbookView xWindow="288" yWindow="96" windowWidth="22020" windowHeight="8496"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -50,12 +50,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -375,16 +382,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4">
@@ -427,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
